--- a/biology/Histoire de la zoologie et de la botanique/Werner_Rolfinck/Werner_Rolfinck.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Werner_Rolfinck/Werner_Rolfinck.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Werner Rolfinck ou  Guernerus Rolfincius (né le 15 novembre 1599 à Hambourg, mort le 6 mai 1673 à Iéna) est un médecin, naturaliste, chimiste et botaniste allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Werner Rolfinck est le fils d'un professeur d’université. De 1617 à 1618, il étudie la philosophie à l'université de Wittenberg, puis la médecine à Leyde, Oxford, Paris et à partir du 26 septembre 1622 à Padoue. Après avoir tenu des conférences médicales à Venise, il est reçu docteur de la médecine le 7 avril 1625 à Padoue. En 1628, il revient à Wittenberg et y enseigne l'anatomie.
 En 1629, il est nommé professeur à l'université d'Iéna où, après sa nomination le 4 février et son entrée en service le 13 mai, il enseigne la chirurgie, l’anatomie et la botanique. Il crée un laboratoire de chimie dans lequel il donne des cours. En 1638, il reprend le Exercitium Chymicum, la leçon de chimie et est nommé professeur d’iatrochimie (chimie appliquée à la médecine) en 1641.
